--- a/plot/experiment.xlsx
+++ b/plot/experiment.xlsx
@@ -2,26 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VAULT4\2024\check_hist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\tuhocr\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8835"/>
   </bookViews>
   <sheets>
-    <sheet name="var" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'[1]Table update'!$P$3:$P$452</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'[1]Table update'!$AD$2:$AD$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'[1]Table update'!$P$2:$P$451</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,10 +44,10 @@
     <t>var6</t>
   </si>
   <si>
-    <t>output2</t>
+    <t>output1</t>
   </si>
   <si>
-    <t>output1</t>
+    <t>output2</t>
   </si>
 </sst>
 </file>
@@ -63,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,2302 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Table A1 Compressive strength"/>
-      <sheetName val="Table update"/>
-      <sheetName val="Table update (2)"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="M1" t="str">
-            <v>fcy [MPa]</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="P2">
-            <v>0.45</v>
-          </cell>
-          <cell r="AD2">
-            <v>4.1623272457496459</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>0.45</v>
-          </cell>
-          <cell r="AD3">
-            <v>4.1623272457496459</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>0.45</v>
-          </cell>
-          <cell r="AD4">
-            <v>4.1623272457496459</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5">
-            <v>0.45</v>
-          </cell>
-          <cell r="AD5">
-            <v>4.1623272457496459</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6">
-            <v>0.65</v>
-          </cell>
-          <cell r="AD6">
-            <v>0.67030817170249224</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="P7">
-            <v>0.65</v>
-          </cell>
-          <cell r="AD7">
-            <v>0.67030817170249224</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8">
-            <v>0.65</v>
-          </cell>
-          <cell r="AD8">
-            <v>0.67030817170249224</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="P9">
-            <v>0.65</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="P10">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="P11">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="P12">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="P13">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="P14">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="P15">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="P16">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="P17">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="P18">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="P19">
-            <v>0.45974025974025973</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="P20">
-            <v>0.45974025974025973</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="P21">
-            <v>0.45974025974025973</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="P22">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="P23">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="P24">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="P25">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="P26">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="P27">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="P28">
-            <v>0.39130434782608697</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="P29">
-            <v>0.39130434782608697</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="P30">
-            <v>0.39130434782608697</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="P31">
-            <v>0.39999999999999997</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="P32">
-            <v>0.39999999999999997</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="P33">
-            <v>0.39999999999999997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="P34">
-            <v>0.39999999999999997</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="P35">
-            <v>0.68106508875739646</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="P36">
-            <v>0.68106508875739646</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="P37">
-            <v>0.68106508875739646</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="P38">
-            <v>0.68106508875739646</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="P39">
-            <v>0.68106508875739646</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="P40">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="P41">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="P42">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="P43">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="P44">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="P45">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="P46">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="P47">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="P48">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="P49">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="P50">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="P51">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="P52">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="P53">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="P54">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="P55">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="P56">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="P57">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="P58">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="P59">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="P60">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="P61">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="P62">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="P63">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="P64">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="P65">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="P66">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="P67">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="P68">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="P69">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="P70">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="P71">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="P72">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="P73">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="P74">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="P75">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="P76">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="P77">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="P78">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="P79">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="P80">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="P81">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="P82">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="P83">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="P84">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="P85">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="P86">
-            <v>0.55076923076923079</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="P87">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="P88">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="P89">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="P90">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="P91">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="P92">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="P93">
-            <v>0.4494949494949495</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="P94">
-            <v>0.50028490028490025</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="P95">
-            <v>0.50028490028490025</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="P96">
-            <v>0.66012861736334405</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="P97">
-            <v>0.56010928961748629</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="P98">
-            <v>0.66012861736334405</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="P99">
-            <v>0.56010928961748629</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="P100">
-            <v>0.86899563318777295</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="P101">
-            <v>0.60000000000000009</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="P102">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="P103">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="P104">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="P105">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="P106">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="P107">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="P108">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="P109">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="P110">
-            <v>0.59037267080745337</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="P111">
-            <v>0.59012345679012346</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="P112">
-            <v>0.59099378881987585</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="P113">
-            <v>0.59135802469135801</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="P114">
-            <v>0.59135802469135801</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="P115">
-            <v>0.59012345679012346</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="P116">
-            <v>0.59074074074074079</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="P117">
-            <v>0.59012345679012346</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="P118">
-            <v>0.45121951219512196</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="P119">
-            <v>0.45121951219512196</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="P120">
-            <v>0.45040214477211798</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="P121">
-            <v>0.45040214477211798</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="P122">
-            <v>0.49266862170087977</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="P123">
-            <v>0.49266862170087977</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="P124">
-            <v>0.34965034965034963</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="P125">
-            <v>0.34965034965034963</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="P126">
-            <v>0.38167938931297712</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="P127">
-            <v>0.38167938931297712</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="P128">
-            <v>0.38167938931297712</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="P129">
-            <v>0.38167938931297712</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="P130">
-            <v>0.44533333333333336</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="P131">
-            <v>0.28538283062645009</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="P132">
-            <v>0.3439635535307517</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="P133">
-            <v>0.48942598187311176</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="P134">
-            <v>0.32283464566929132</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="P135">
-            <v>0.38324873096446699</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="P136">
-            <v>0.44808743169398907</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="P137">
-            <v>0.29952830188679247</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="P138">
-            <v>0.34606205250596661</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="P139">
-            <v>0.46745562130177515</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="P140">
-            <v>0.3219895287958115</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="P141">
-            <v>0.38095238095238093</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="P142">
-            <v>0.48942598187311176</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="P143">
-            <v>0.32367149758454106</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="P144">
-            <v>0.3900523560209424</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="P145">
-            <v>0.48923076923076925</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="P146">
-            <v>0.32345679012345679</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="P147">
-            <v>0.38873994638069703</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="P148">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="P149">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="P150">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="P151">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="P152">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="P153">
-            <v>0.57017543859649122</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="P154">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="P155">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="P156">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="P157">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="P158">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="P159">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="P160">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="P161">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="P162">
-            <v>0.60006487187804081</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="P163">
-            <v>0.45010288065843618</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="P164">
-            <v>0.45010288065843618</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="P165">
-            <v>0.45010288065843618</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="P166">
-            <v>0.45010288065843618</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="P167">
-            <v>0.45010288065843618</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="P168">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="P169">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="P170">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="P171">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="P172">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="P173">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="P174">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="P175">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="P176">
-            <v>0.30996030996030993</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="P177">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="P178">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="P179">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="P180">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="P181">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="P182">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="P183">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="P184">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="P185">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="P186">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="P187">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="P188">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="P189">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="P190">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="P191">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="P192">
-            <v>0.5803571428571429</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="P193">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="P194">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="P195">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="P196">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="P197">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="P198">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="P199">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="P200">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="P201">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="P202">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="P203">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="P204">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="P205">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="P206">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="P207">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="P208">
-            <v>0.33013435700575816</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="P209">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="P210">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="P211">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="P212">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="P213">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="P214">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="P215">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="P216">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="P217">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="P218">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="P219">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="P220">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="P221">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="P222">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="P223">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="P224">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="P225">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="P226">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="P227">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="P228">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="P229">
-            <v>0.58041958041958042</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="P230">
-            <v>0.44959128065395093</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="P231">
-            <v>0.44959128065395093</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="P232">
-            <v>0.44959128065395093</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="P233">
-            <v>0.44959128065395093</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="P234">
-            <v>0.44959128065395093</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="P235">
-            <v>0.39772727272727271</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="P236">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="P237">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="P238">
-            <v>0.40217391304347827</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="P239">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="P240">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="P241">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="P242">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="P243">
-            <v>0.3816046966731898</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="P244">
-            <v>0.3816046966731898</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="P245">
-            <v>0.3816046966731898</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="P246">
-            <v>0.3816046966731898</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="P247">
-            <v>0.30721966205837176</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="P248">
-            <v>0.30721966205837176</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="P249">
-            <v>0.30721966205837176</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="P250">
-            <v>0.30721966205837176</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="P251">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="P252">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="P253">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="P254">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="P255">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="P256">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="P257">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="P258">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="P259">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="P260">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="P261">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="P262">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="P263">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="P264">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="P265">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="P266">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="P267">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="P268">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="P269">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="P270">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="P271">
-            <v>0.69029850746268662</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="P272">
-            <v>0.69029850746268662</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="P273">
-            <v>0.44258373205741625</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="P274">
-            <v>0.44258373205741625</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="P275">
-            <v>0.35305343511450382</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="P276">
-            <v>0.35305343511450382</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="P277">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="P278">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="P279">
-            <v>0.56074766355140182</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="P280">
-            <v>0.48044692737430167</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="P281">
-            <v>0.48044692737430167</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="P282">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="P283">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="P284">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="P285">
-            <v>0.47959183673469385</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="P286">
-            <v>0.47959183673469385</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="P287">
-            <v>0.48039215686274511</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="P288">
-            <v>0.48039215686274511</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="P289">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="P290">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="P291">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="P292">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="P293">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="P294">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="P295">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="P296">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="P297">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="P298">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="P299">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="P300">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="P301">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="P302">
-            <v>0.43307086614173229</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="P303">
-            <v>0.43307086614173229</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="P304">
-            <v>0.43307086614173229</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="P305">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="P306">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="P307">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="P308">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="P309">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="P310">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="P311">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="P312">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="P313">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="P314">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="P315">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="P316">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="P317">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="P318">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="P319">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="P320">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="P321">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="P322">
-            <v>0.37960954446854661</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="P323">
-            <v>0.37960954446854661</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="P324">
-            <v>0.37960954446854661</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="P325">
-            <v>0.37960954446854661</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="P326">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="P327">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="P328">
-            <v>0.42990654205607476</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="P329">
-            <v>0.42990654205607476</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="P330">
-            <v>0.3503184713375796</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="P331">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="P332">
-            <v>0.54016620498614953</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="P333">
-            <v>0.54016620498614953</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="P334">
-            <v>0.54016620498614953</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="P335">
-            <v>0.48029556650246308</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="P336">
-            <v>0.48029556650246308</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="P337">
-            <v>0.48029556650246308</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="P338">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="P339">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="P340">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="P341">
-            <v>0.47963800904977377</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="P342">
-            <v>0.47963800904977377</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="P343">
-            <v>0.47963800904977377</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="P344">
-            <v>0.48034934497816595</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="P345">
-            <v>0.48034934497816595</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="P346">
-            <v>0.48034934497816595</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="P347">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="P348">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="P349">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="P350">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="P351">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="P352">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="P353">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="P354">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="P355">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="P356">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="P357">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="P358">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="P359">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="P360">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="P361">
-            <v>0.62015503875968991</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="P362">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="P363">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="P364">
-            <v>0.38986354775828458</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="P365">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="P366">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="P367">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="P368">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="P369">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="P370">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="P371">
-            <v>0.59925093632958804</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="P372">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="P373">
-            <v>0.60070671378091878</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="P374">
-            <v>0.62015503875968991</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="P375">
-            <v>0.46987951807228917</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="P376">
-            <v>0.38986354775828458</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="P377">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="P378">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="P379">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="P380">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="P381">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="P382">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="P383">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="P384">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="P385">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="P386">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="P387">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="P388">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="P389">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="P390">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="P391">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="P392">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="P393">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="P394">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="P395">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="P396">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="P397">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="P398">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="P399">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="P400">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="P401">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="P402">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="P403">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="P404">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="P405">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="P406">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="P407">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="P408">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="P409">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="P410">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="P411">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="P412">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="P413">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="P414">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="P415">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="P416">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="P417">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="P418">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="P419">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="P420">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="P421">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="P422">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="P423">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="P424">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="P425">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="P426">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="P427">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="P428">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="P429">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="P430">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="P431">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="P432">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="P433">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="P434">
-            <v>0.44565217391304346</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="P435">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="P436">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="P437">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="P438">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="P439">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="P440">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="P441">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="P442">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="P443">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="P444">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="P445">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="P446">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="P447">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="P448">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="P449">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="P450">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="P451">
-            <v>0.47</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2427,7 +123,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2439,7 +135,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2456,9 +152,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2486,31 +182,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2538,23 +217,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2710,15 +372,10 @@
   <dimension ref="A1:H420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M156" sqref="M156"/>
+      <selection sqref="A1:H420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2740,10 +397,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
